--- a/FantasyFA.xlsx
+++ b/FantasyFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_hernandez_alumnos_upm_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B67548-C59E-4C7B-A3A2-9CAF2A0D372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0ED8851-735A-44D3-93B1-6EFD3A58CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadisticas" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="65">
   <si>
     <t>Jugador</t>
   </si>
@@ -716,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="89" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="O2" s="2">
         <f t="shared" ref="O2:O25" si="0">($B$30-C2-D2)/$B$30*100</f>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="P2" s="2">
         <f>E2/(D2+C2)*100</f>
@@ -857,10 +857,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -895,19 +895,19 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N25" si="2">C3/(C3+D3)*100</f>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P25" si="3">E3/(D3+C3)*100</f>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q25" si="4">G3/(D3+C3)*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R25" si="5">J3/(C3+D3)</f>
@@ -961,7 +961,7 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="3"/>
@@ -981,10 +981,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1009,29 +1009,29 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="5"/>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="3"/>
@@ -1105,13 +1105,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1141,25 +1141,25 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="e">
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P7" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="2" t="e">
+      <c r="R7" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1167,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1229,10 +1229,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -1275,15 +1275,15 @@
       </c>
       <c r="P9" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="3"/>
@@ -1353,10 +1353,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -1395,15 +1395,15 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="5"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="3"/>
@@ -1477,10 +1477,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1519,19 +1519,19 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1539,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -1585,15 +1585,15 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1705,11 +1705,11 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="4"/>
@@ -1725,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1767,19 +1767,19 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1787,22 +1787,22 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1829,15 +1829,15 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="5"/>
@@ -1849,10 +1849,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
@@ -1895,11 +1895,11 @@
       </c>
       <c r="P19" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="5"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
@@ -1973,10 +1973,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="2">
         <v>2</v>
@@ -2015,19 +2015,19 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="3"/>
@@ -2097,13 +2097,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="3"/>
@@ -2159,10 +2159,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
@@ -2205,15 +2205,15 @@
       </c>
       <c r="P24" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2221,13 +2221,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -2267,15 +2267,15 @@
       </c>
       <c r="P25" s="2">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2283,7 +2283,7 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2299,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2702,10 +2702,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -3018,10 +3020,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -3179,7 +3183,9 @@
         <f>G8*6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*6</f>
         <v>0</v>
@@ -3340,7 +3346,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -3501,10 +3509,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,3,1-G10),1-G10),"")</f>
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,3,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -3663,7 +3673,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -3824,7 +3836,9 @@
         <f>-G12</f>
         <v>-1</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -3985,7 +3999,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -4146,10 +4162,12 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
@@ -4307,7 +4325,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -4468,7 +4488,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -4781,7 +4803,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -10172,7 +10194,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -10570,10 +10592,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -10725,7 +10749,9 @@
         <f>IF(EXACT(G6,"SI"), 1, IF(EXACT(G6,"NO"), 0, ""))</f>
         <v/>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2" t="str">
         <f>IF(EXACT(I6,"SI"), 1, IF(EXACT(I6,"NO"), 0, ""))</f>
         <v/>
@@ -10882,7 +10908,9 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2" t="str">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
         <v/>
@@ -11039,7 +11067,9 @@
         <f>G8*5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*5</f>
         <v>0</v>
@@ -11196,7 +11226,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -11353,10 +11385,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -11510,7 +11544,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -11667,7 +11703,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -11824,7 +11862,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -11981,7 +12021,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -12138,7 +12180,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -12295,7 +12339,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -12608,7 +12654,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -15424,7 +15470,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -15824,10 +15870,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -16138,10 +16186,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -16297,7 +16347,9 @@
         <f>G8*5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*5</f>
         <v>0</v>
@@ -16456,7 +16508,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -16615,10 +16669,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -16774,7 +16830,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -16933,7 +16991,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -17092,7 +17152,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -17251,7 +17313,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -17410,7 +17474,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -17569,7 +17635,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -17882,7 +17950,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -18061,7 +18129,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -18463,10 +18531,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>68</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -18779,10 +18849,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -18940,7 +19012,9 @@
         <f>G8*5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*5</f>
         <v>0</v>
@@ -19101,7 +19175,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -19262,10 +19338,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -19423,7 +19501,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -19584,7 +19664,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -19745,7 +19827,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -19906,7 +19990,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -20067,7 +20153,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -20228,7 +20316,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -20541,7 +20631,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -26016,7 +26106,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -26418,10 +26508,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>22</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -26734,7 +26826,9 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="2" t="str">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
         <v/>
@@ -26895,7 +26989,9 @@
         <f>G8*5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*5</f>
         <v>0</v>
@@ -27056,7 +27152,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -27217,10 +27315,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -27378,7 +27478,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -27539,7 +27641,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -27700,7 +27804,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -27861,7 +27967,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -28022,7 +28130,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -28183,7 +28293,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -28498,7 +28610,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -28676,7 +28788,7 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -28918,7 +29030,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B28" ca="1" si="0">SUM($C3:$AF3)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!D18")</f>
@@ -28934,7 +29046,7 @@
       </c>
       <c r="F3" s="2" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!L18")</f>
@@ -29176,7 +29288,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("'" &amp; $A5 &amp; "'!D18")</f>
@@ -29192,7 +29304,7 @@
       </c>
       <c r="F5" s="2" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT("'" &amp; $A5 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("'" &amp; $A5 &amp; "'!L18")</f>
@@ -29434,7 +29546,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!D18")</f>
@@ -29450,7 +29562,7 @@
       </c>
       <c r="F7" s="2" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!L18")</f>
@@ -29563,7 +29675,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("'" &amp; $A8 &amp; "'!D18")</f>
@@ -29579,7 +29691,7 @@
       </c>
       <c r="F8" s="2" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT("'" &amp; $A8 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("'" &amp; $A8 &amp; "'!L18")</f>
@@ -29692,7 +29804,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!D18")</f>
@@ -29708,7 +29820,7 @@
       </c>
       <c r="F9" s="2" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!L18")</f>
@@ -29950,7 +30062,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!D18")</f>
@@ -29966,7 +30078,7 @@
       </c>
       <c r="F11" s="2" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!L18")</f>
@@ -30208,7 +30320,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!D18")</f>
@@ -30224,7 +30336,7 @@
       </c>
       <c r="F13" s="2" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!L18")</f>
@@ -30337,7 +30449,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT("'" &amp; $A14 &amp; "'!D18")</f>
@@ -30353,7 +30465,7 @@
       </c>
       <c r="F14" s="2" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDIRECT("'" &amp; $A14 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("'" &amp; $A14 &amp; "'!L18")</f>
@@ -30724,7 +30836,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!D18")</f>
@@ -30740,7 +30852,7 @@
       </c>
       <c r="F17" s="2" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!L18")</f>
@@ -30853,7 +30965,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!D18")</f>
@@ -30869,7 +30981,7 @@
       </c>
       <c r="F18" s="2" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!L18")</f>
@@ -30982,7 +31094,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!D18")</f>
@@ -30998,7 +31110,7 @@
       </c>
       <c r="F19" s="2" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!L18")</f>
@@ -31240,7 +31352,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT("'" &amp; $A21 &amp; "'!D18")</f>
@@ -31256,7 +31368,7 @@
       </c>
       <c r="F21" s="2" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT("'" &amp; $A21 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("'" &amp; $A21 &amp; "'!L18")</f>
@@ -31498,7 +31610,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDIRECT("'" &amp; $A23 &amp; "'!D18")</f>
@@ -31514,7 +31626,7 @@
       </c>
       <c r="F23" s="2" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT("'" &amp; $A23 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("'" &amp; $A23 &amp; "'!L18")</f>
@@ -31627,7 +31739,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!D18")</f>
@@ -31643,7 +31755,7 @@
       </c>
       <c r="F24" s="2" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!L18")</f>
@@ -31756,7 +31868,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDIRECT("'" &amp; $A25 &amp; "'!D18")</f>
@@ -31772,7 +31884,7 @@
       </c>
       <c r="F25" s="2" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDIRECT("'" &amp; $A25 &amp; "'!J18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDIRECT("'" &amp; $A25 &amp; "'!L18")</f>
@@ -34904,7 +35016,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -35304,10 +35416,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -35618,10 +35732,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -35777,7 +35893,9 @@
         <f>G8*4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*4</f>
         <v>0</v>
@@ -35936,7 +36054,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -36095,10 +36215,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -36254,7 +36376,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -36413,7 +36537,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -36572,7 +36698,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -36731,7 +36859,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -36890,7 +37020,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -37049,7 +37181,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -37364,7 +37498,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -37543,7 +37677,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -37943,10 +38077,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>22</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -38257,7 +38393,9 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="2" t="str">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
         <v/>
@@ -38416,7 +38554,9 @@
         <f>G8*4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*4</f>
         <v>0</v>
@@ -38575,7 +38715,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -38734,10 +38876,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -38893,7 +39037,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -39052,7 +39198,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -39211,7 +39359,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -39370,7 +39520,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -39529,7 +39681,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -39688,7 +39842,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -40001,7 +40157,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -40179,8 +40335,8 @@
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -40582,10 +40738,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -40898,10 +41056,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -41059,10 +41219,12 @@
         <f>G8*2</f>
         <v>2</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2">
-        <f>I8*4</f>
-        <v>0</v>
+        <f>I8</f>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
@@ -41220,7 +41382,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -41381,10 +41545,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,4,1-G10),1-G10),"")</f>
         <v>4</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -41542,7 +41708,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -41703,7 +41871,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -41864,7 +42034,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -42025,7 +42197,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -42186,7 +42360,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -42347,7 +42523,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -42660,7 +42838,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -45454,7 +45632,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -45856,10 +46034,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>82</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -46170,10 +46350,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -46329,7 +46511,9 @@
         <f>G8*4</f>
         <v>4</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*4</f>
         <v>0</v>
@@ -46488,7 +46672,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -46647,10 +46833,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -46806,7 +46994,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -46967,7 +47157,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -47126,7 +47318,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -47285,7 +47479,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -47444,7 +47640,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -47603,7 +47801,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -47918,7 +48118,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -50734,7 +50934,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -51132,10 +51332,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -51444,7 +51646,9 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="2" t="str">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
         <v/>
@@ -51601,7 +51805,9 @@
         <f>G8*4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*4</f>
         <v>0</v>
@@ -51758,7 +51964,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -51915,10 +52123,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -52072,7 +52282,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -52229,7 +52441,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -52386,7 +52600,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -52543,7 +52759,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -52700,7 +52918,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -52857,7 +53077,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -53170,7 +53392,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -53349,7 +53571,7 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -53751,10 +53973,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>68</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -54067,10 +54291,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -54228,7 +54454,9 @@
         <f>G8*4</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*4</f>
         <v>0</v>
@@ -54389,7 +54617,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -54550,10 +54780,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,2,1-G10),1-G10),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,2,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -54711,7 +54943,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -54872,7 +55106,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -55033,7 +55269,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -55194,7 +55432,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -55355,7 +55595,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -55516,7 +55758,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -55829,7 +56073,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -56007,7 +56251,7 @@
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -61240,7 +61484,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -61641,10 +61885,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>90</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -61955,10 +62201,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -62114,7 +62362,9 @@
         <f>G8*6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*6</f>
         <v>0</v>
@@ -62273,7 +62523,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -62432,10 +62684,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,3,1-G10),1-G10),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,3,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -62592,7 +62846,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -62751,7 +63007,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -62910,7 +63168,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -63069,7 +63329,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -63228,7 +63490,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -63387,7 +63651,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -63700,7 +63966,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -63879,7 +64145,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -66540,7 +66806,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -66941,10 +67207,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>89</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -67255,10 +67523,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -67414,7 +67684,9 @@
         <f>G8*6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*6</f>
         <v>0</v>
@@ -67573,7 +67845,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -67732,10 +68006,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,3,1-G10),1-G10),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,3,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -67892,7 +68168,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -68051,7 +68329,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -68210,10 +68490,12 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
@@ -68369,7 +68651,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -68528,7 +68812,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -68687,7 +68973,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -69000,7 +69288,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -71818,7 +72106,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -72215,10 +72503,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>45</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -72525,10 +72815,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -72680,7 +72972,9 @@
         <f>G8*6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*6</f>
         <v>0</v>
@@ -72835,7 +73129,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -72990,10 +73286,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,3,1-G10),1-G10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,3,1-I10),1-I10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -73146,7 +73444,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -73301,7 +73601,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -73456,7 +73758,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -73611,7 +73915,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -73766,7 +74072,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -73921,7 +74229,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -74234,7 +74544,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
@@ -74413,7 +74723,7 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -74816,10 +75126,12 @@
         <f>IF(G5&gt;0,INT(G5/45)+1,0)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>45</v>
+      </c>
       <c r="J5" s="2">
         <f>IF(I5&gt;0,INT(I5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
@@ -74971,7 +75283,9 @@
         <f>IF(EXACT(G6,"SI"), 1, IF(EXACT(G6,"NO"), 0, ""))</f>
         <v/>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2" t="str">
         <f>IF(EXACT(I6,"SI"), 1, IF(EXACT(I6,"NO"), 0, ""))</f>
         <v/>
@@ -75132,10 +75446,12 @@
         <f>IF(G5&gt;=30,IF(EXACT(G7,"W"),2,IF(EXACT(G7,"D"),1,IF(EXACT(G7,"L"),0,""))),"")</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="str">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
         <f>IF(I5&gt;=30,IF(EXACT(I7,"W"),2,IF(EXACT(I7,"D"),1,IF(EXACT(I7,"L"),0,""))),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
@@ -75293,7 +75609,9 @@
         <f>G8*6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <f>I8*6</f>
         <v>0</v>
@@ -75454,7 +75772,9 @@
         <f>G9*3</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <f>I9*3</f>
         <v>0</v>
@@ -75615,10 +75935,12 @@
         <f>IF(ISNUMBER(G10),IF(G5&gt;=60,IF(G10=0,3,1-G10),1-G10),"")</f>
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>IF(ISNUMBER(I10),IF(I5&gt;=60,IF(I10=0,3,1-I10),1-I10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
@@ -75777,7 +76099,9 @@
         <f>-3*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <f>-3*I11</f>
         <v>0</v>
@@ -75938,7 +76262,9 @@
         <f>-G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <f>-I12</f>
         <v>0</v>
@@ -76099,7 +76425,9 @@
         <f>-3*G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <f>-3*I13</f>
         <v>0</v>
@@ -76260,7 +76588,9 @@
         <f>-2*G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <f>-2*I14</f>
         <v>0</v>
@@ -76421,7 +76751,9 @@
         <f>3*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <f>3*I15</f>
         <v>0</v>
@@ -76582,7 +76914,9 @@
         <f>-3*G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <f>-3*I16</f>
         <v>0</v>
@@ -76895,7 +77229,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">

--- a/FantasyFA.xlsx
+++ b/FantasyFA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_hernandez_alumnos_upm_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\OneDrive\Escritorio\Proyecto-fantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{851F2535-8AC8-4B67-AC6B-FEA537E05803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91363C50-B89C-4FDE-A3E4-AB719065D3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadisticas" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="67">
   <si>
     <t>Jugador</t>
   </si>
@@ -296,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,26 +738,26 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="15" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,21 +816,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -863,15 +863,15 @@
       </c>
       <c r="O2" s="10">
         <f t="shared" ref="O2:O26" si="0">($B$30-C2-D2)/$B$30*100</f>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P2" s="10">
         <f>E2/(D2+C2)*100</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="10">
         <f>G2/(D2+C2)*100</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R2" s="11">
         <f>J2/(C2+D2)</f>
@@ -879,24 +879,24 @@
       </c>
       <c r="S2" s="9">
         <f>B2/($B$30*90)*100</f>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -905,17 +905,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J26" si="1">H3+I3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -925,44 +925,44 @@
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N26" si="2">C3/(C3+D3)*100</f>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="P3" s="10">
         <f t="shared" ref="P3:P26" si="3">E3/(D3+C3)*100</f>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="Q3" s="10">
         <f t="shared" ref="Q3:Q26" si="4">G3/(D3+C3)*100</f>
-        <v>20</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="R3" s="11">
         <f t="shared" ref="R3:R26" si="5">J3/(C3+D3)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S3" s="9">
         <f t="shared" ref="S3:S26" si="6">B3/($B$30*90)*100</f>
-        <v>63.703703703703709</v>
+        <v>68.888888888888886</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -995,26 +995,26 @@
       </c>
       <c r="O4" s="10">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P4" s="10">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R4" s="11">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="9">
         <f t="shared" si="6"/>
-        <v>60.925925925925931</v>
+        <v>66.507936507936506</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="3"/>
@@ -1077,24 +1077,24 @@
       </c>
       <c r="S5" s="9">
         <f t="shared" si="6"/>
-        <v>36.111111111111107</v>
+        <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1127,40 +1127,40 @@
       </c>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="P6" s="10">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="6"/>
-        <v>19.814814814814817</v>
+        <v>31.269841269841269</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1189,19 +1189,19 @@
       </c>
       <c r="N7" s="10">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R7" s="11">
         <f t="shared" si="5"/>
@@ -1209,10 +1209,10 @@
       </c>
       <c r="S7" s="9">
         <f t="shared" si="6"/>
-        <v>19.444444444444446</v>
+        <v>23.809523809523807</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="3"/>
@@ -1275,24 +1275,24 @@
       </c>
       <c r="S8" s="9">
         <f t="shared" si="6"/>
-        <v>74.444444444444443</v>
+        <v>63.809523809523803</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2">
-        <v>519</v>
+        <v>609</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1304,14 +1304,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
@@ -1329,22 +1329,22 @@
       </c>
       <c r="P9" s="10">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="6"/>
-        <v>96.111111111111114</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="P10" s="10">
         <f t="shared" si="3"/>
@@ -1407,24 +1407,24 @@
       </c>
       <c r="S10" s="9">
         <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
         <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1457,15 +1457,15 @@
       </c>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="5"/>
@@ -1473,24 +1473,24 @@
       </c>
       <c r="S11" s="9">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>52.698412698412703</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1512,26 +1512,26 @@
         <v>3</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
       <c r="R12" s="11">
         <f t="shared" si="5"/>
@@ -1539,24 +1539,24 @@
       </c>
       <c r="S12" s="9">
         <f t="shared" si="6"/>
-        <v>19.25925925925926</v>
+        <v>20.952380952380953</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1589,26 +1589,26 @@
       </c>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="R13" s="11">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="6"/>
-        <v>81.111111111111114</v>
+        <v>83.80952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="P14" s="10">
         <f t="shared" si="3"/>
@@ -1671,24 +1671,24 @@
       </c>
       <c r="S14" s="9">
         <f t="shared" si="6"/>
-        <v>84.074074074074076</v>
+        <v>72.063492063492063</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -1717,19 +1717,19 @@
       </c>
       <c r="N15" s="10">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="10">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" si="5"/>
@@ -1737,10 +1737,10 @@
       </c>
       <c r="S15" s="9">
         <f t="shared" si="6"/>
-        <v>42.962962962962962</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="3"/>
@@ -1803,24 +1803,24 @@
       </c>
       <c r="S16" s="9">
         <f t="shared" si="6"/>
-        <v>16.111111111111111</v>
+        <v>13.80952380952381</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>429</v>
+        <v>519</v>
       </c>
       <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1853,40 +1853,40 @@
       </c>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="6"/>
-        <v>79.444444444444443</v>
+        <v>82.38095238095238</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
         <v>4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1915,19 +1915,19 @@
       </c>
       <c r="N18" s="10">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="R18" s="11">
         <f t="shared" si="5"/>
@@ -1935,24 +1935,24 @@
       </c>
       <c r="S18" s="9">
         <f t="shared" si="6"/>
-        <v>32.407407407407405</v>
+        <v>34.920634920634917</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -1981,19 +1981,19 @@
       </c>
       <c r="N19" s="10">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R19" s="11">
         <f t="shared" si="5"/>
@@ -2001,10 +2001,10 @@
       </c>
       <c r="S19" s="9">
         <f t="shared" si="6"/>
-        <v>38.703703703703702</v>
+        <v>33.650793650793652</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="3"/>
@@ -2067,10 +2067,10 @@
       </c>
       <c r="S20" s="9">
         <f t="shared" si="6"/>
-        <v>22.407407407407405</v>
+        <v>19.206349206349209</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="3"/>
@@ -2133,10 +2133,10 @@
       </c>
       <c r="S21" s="9">
         <f t="shared" si="6"/>
-        <v>73.518518518518519</v>
+        <v>63.015873015873012</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="3"/>
@@ -2199,10 +2199,10 @@
       </c>
       <c r="S22" s="9">
         <f t="shared" si="6"/>
-        <v>30.185185185185187</v>
+        <v>25.873015873015877</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" si="3"/>
@@ -2265,24 +2265,24 @@
       </c>
       <c r="S23" s="9">
         <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="N24" s="10">
         <f t="shared" si="2"/>
-        <v>33.333333333333329</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="P24" s="10">
         <f t="shared" si="3"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="Q24" s="10">
         <f t="shared" si="4"/>
-        <v>33.333333333333329</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="R24" s="11">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="6"/>
-        <v>42.222222222222221</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" si="3"/>
@@ -2397,24 +2397,24 @@
       </c>
       <c r="S25" s="9">
         <f t="shared" si="6"/>
-        <v>26.111111111111114</v>
+        <v>22.380952380952383</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="N26" s="10">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="3"/>
@@ -2463,15 +2463,15 @@
       </c>
       <c r="S26" s="9">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
+        <v>19.365079365079367</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2487,15 +2487,15 @@
   <dimension ref="B2:BL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2865,7 +2865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2916,10 +2916,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -3238,10 +3240,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -3354,7 +3358,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -3405,7 +3409,9 @@
         <f>O8*6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*6</f>
         <v>0</v>
@@ -3521,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -3572,10 +3578,12 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
@@ -3688,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3739,10 +3747,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,3,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,3,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -3856,7 +3866,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -3907,7 +3917,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -4023,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4074,7 +4086,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -4190,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4241,7 +4255,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -4357,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -4408,7 +4424,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -4524,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -4575,7 +4593,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -4691,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -4742,7 +4762,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -4858,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -5013,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -5055,7 +5077,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -5170,21 +5192,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -5201,6 +5208,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5217,12 +5239,12 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -5286,7 +5308,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -5409,7 +5431,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -5592,7 +5614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5749,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -5904,7 +5926,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -6061,7 +6083,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -6218,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -6375,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -6533,7 +6555,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -6690,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -6847,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7004,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -7161,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -7318,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -7475,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -7630,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -7787,21 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -7818,6 +7825,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7834,12 +7856,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -7903,7 +7925,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -8026,7 +8048,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -8209,7 +8231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8364,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -8519,7 +8541,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -8674,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -8829,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -8984,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -9140,7 +9162,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -9295,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -9450,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -9605,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -9760,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -9915,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -10070,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -10225,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -10382,21 +10404,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -10413,6 +10420,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10426,15 +10448,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -10498,7 +10520,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -10620,7 +10642,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -10803,7 +10825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10848,10 +10870,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>62</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -10964,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -11121,7 +11145,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -11166,10 +11190,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -11282,7 +11308,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -11327,7 +11353,9 @@
         <f>O8*5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*5</f>
         <v>0</v>
@@ -11443,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -11488,7 +11516,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -11604,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -11649,10 +11679,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -11765,7 +11797,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -11810,7 +11842,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -11926,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -11971,10 +12005,12 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
@@ -12087,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -12132,7 +12168,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -12248,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -12293,7 +12331,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -12409,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -12454,7 +12494,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -12570,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -12615,7 +12657,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -12731,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -12886,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -12928,7 +12972,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -13043,6 +13087,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -13059,21 +13118,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13087,15 +13131,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -13159,7 +13203,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -13281,7 +13325,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -13464,7 +13508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -13509,10 +13553,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>28</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -13625,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -13780,7 +13826,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -13825,7 +13871,9 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="R7" s="2" t="str">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
         <v/>
@@ -13941,7 +13989,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -13986,7 +14034,9 @@
         <f>O8*5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*5</f>
         <v>0</v>
@@ -14102,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -14147,7 +14197,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -14263,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -14308,10 +14360,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -14424,7 +14478,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -14469,7 +14523,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -14585,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -14630,10 +14686,12 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
@@ -14746,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -14791,7 +14849,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -14907,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -14952,7 +15012,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -15068,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -15113,7 +15175,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -15229,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -15274,7 +15338,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -15390,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -15545,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -15587,7 +15653,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -15702,21 +15768,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -15733,6 +15784,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15746,15 +15812,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -15818,7 +15884,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -15940,7 +16006,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -16123,7 +16189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -16172,10 +16238,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -16288,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -16443,7 +16511,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -16492,10 +16560,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -16608,7 +16678,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -16657,7 +16727,9 @@
         <f>O8*5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*5</f>
         <v>0</v>
@@ -16773,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -16822,7 +16894,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -16938,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -16987,10 +17061,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -17103,7 +17179,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -17152,7 +17228,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -17268,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -17317,10 +17395,12 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
@@ -17433,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -17482,7 +17562,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -17598,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -17647,7 +17729,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -17763,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -17812,7 +17896,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -17928,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -17977,7 +18063,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -18093,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -18248,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -18290,7 +18378,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -18405,21 +18493,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -18436,6 +18509,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18452,12 +18540,12 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -18521,7 +18609,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -18643,7 +18731,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -18826,7 +18914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -18993,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -19148,7 +19236,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -19315,7 +19403,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -19482,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -19649,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -19816,7 +19904,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -19983,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -20150,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -20317,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -20484,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -20651,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -20818,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -20973,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -21130,21 +21218,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -21161,6 +21234,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21173,16 +21261,16 @@
   </sheetPr>
   <dimension ref="B2:BJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -21246,7 +21334,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -21368,7 +21456,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -21551,7 +21639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -21598,10 +21686,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>62</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -21714,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -21869,7 +21959,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -21916,10 +22006,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -22032,7 +22124,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -22079,7 +22171,9 @@
         <f>O8*5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*5</f>
         <v>0</v>
@@ -22195,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -22242,7 +22336,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -22358,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -22405,10 +22501,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -22521,7 +22619,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -22568,7 +22666,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -22684,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -22731,7 +22831,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -22847,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -22894,7 +22996,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -23010,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -23057,7 +23161,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -23173,7 +23279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -23220,7 +23326,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -23336,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -23383,7 +23491,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -23499,7 +23609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -23654,7 +23764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -23696,7 +23806,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -23811,21 +23921,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -23842,6 +23937,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23858,12 +23968,12 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -23927,7 +24037,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -24049,7 +24159,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -24232,7 +24342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -24393,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -24548,7 +24658,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -24709,7 +24819,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -24870,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -25031,7 +25141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -25192,7 +25302,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -25353,7 +25463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -25514,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -25675,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -25836,7 +25946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -25997,7 +26107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -26158,7 +26268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -26313,7 +26423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -26470,21 +26580,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -26501,6 +26596,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26517,12 +26627,12 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -26586,7 +26696,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -26708,7 +26818,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -26891,7 +27001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -27056,7 +27166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -27211,7 +27321,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -27376,7 +27486,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -27541,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -27706,7 +27816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -27871,7 +27981,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -28036,7 +28146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -28201,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -28366,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -28531,7 +28641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -28696,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -28861,7 +28971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -29018,7 +29128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -29175,21 +29285,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -29206,6 +29301,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29218,16 +29328,16 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -29325,13 +29435,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">SUM($C2:$AF2)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!D18")</f>
@@ -29355,7 +29465,7 @@
       </c>
       <c r="H2" s="2" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!N18")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!P18")</f>
@@ -29363,7 +29473,7 @@
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDIRECT("'" &amp; $A2 &amp; "'!T18")</f>
@@ -29454,13 +29564,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B28" ca="1" si="0">SUM($C3:$AF3)</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!D18")</f>
@@ -29492,7 +29602,7 @@
       </c>
       <c r="J3" s="2" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT("'" &amp; $A3 &amp; "'!T18")</f>
@@ -29583,13 +29693,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("'" &amp; $A4 &amp; "'!D18")</f>
@@ -29621,7 +29731,7 @@
       </c>
       <c r="J4" s="2" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT("'" &amp; $A4 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT("'" &amp; $A4 &amp; "'!T18")</f>
@@ -29712,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -29841,13 +29951,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("'" &amp; $A6 &amp; "'!D18")</f>
@@ -29879,7 +29989,7 @@
       </c>
       <c r="J6" s="2" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT("'" &amp; $A6 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT("'" &amp; $A6 &amp; "'!T18")</f>
@@ -29970,13 +30080,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!D18")</f>
@@ -30008,7 +30118,7 @@
       </c>
       <c r="J7" s="2" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT("'" &amp; $A7 &amp; "'!T18")</f>
@@ -30099,7 +30209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -30228,13 +30338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!D18")</f>
@@ -30266,7 +30376,7 @@
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="2" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDIRECT("'" &amp; $A9 &amp; "'!T18")</f>
@@ -30357,7 +30467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -30486,13 +30596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!D18")</f>
@@ -30524,7 +30634,7 @@
       </c>
       <c r="J11" s="2" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDIRECT("'" &amp; $A11 &amp; "'!T18")</f>
@@ -30615,13 +30725,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("'" &amp; $A12 &amp; "'!D18")</f>
@@ -30653,7 +30763,7 @@
       </c>
       <c r="J12" s="2" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT("'" &amp; $A12 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDIRECT("'" &amp; $A12 &amp; "'!T18")</f>
@@ -30744,13 +30854,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!D18")</f>
@@ -30782,7 +30892,7 @@
       </c>
       <c r="J13" s="2" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDIRECT("'" &amp; $A13 &amp; "'!T18")</f>
@@ -30873,7 +30983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -31002,13 +31112,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT("'" &amp; $A15 &amp; "'!D18")</f>
@@ -31040,7 +31150,7 @@
       </c>
       <c r="J15" s="2" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT("'" &amp; $A15 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDIRECT("'" &amp; $A15 &amp; "'!T18")</f>
@@ -31131,7 +31241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -31260,13 +31370,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!D18")</f>
@@ -31298,7 +31408,7 @@
       </c>
       <c r="J17" s="2" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDIRECT("'" &amp; $A17 &amp; "'!T18")</f>
@@ -31389,13 +31499,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!D18")</f>
@@ -31427,7 +31537,7 @@
       </c>
       <c r="J18" s="2" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDIRECT("'" &amp; $A18 &amp; "'!T18")</f>
@@ -31518,13 +31628,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!D18")</f>
@@ -31556,7 +31666,7 @@
       </c>
       <c r="J19" s="2" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDIRECT("'" &amp; $A19 &amp; "'!T18")</f>
@@ -31647,7 +31757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -31776,7 +31886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -31905,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -32034,7 +32144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -32163,13 +32273,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!D18")</f>
@@ -32201,7 +32311,7 @@
       </c>
       <c r="J24" s="2" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24" s="2" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDIRECT("'" &amp; $A24 &amp; "'!T18")</f>
@@ -32292,7 +32402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -32421,7 +32531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
@@ -32550,13 +32660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDIRECT("'" &amp; $A27 &amp; "'!D18")</f>
@@ -32588,7 +32698,7 @@
       </c>
       <c r="J27" s="2" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDIRECT("'" &amp; $A27 &amp; "'!R18")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="2" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDIRECT("'" &amp; $A27 &amp; "'!T18")</f>
@@ -32679,7 +32789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -32808,7 +32918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="AA29" s="2"/>
     </row>
   </sheetData>
@@ -32853,15 +32963,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -32925,7 +33035,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -33047,7 +33157,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -33230,7 +33340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -33271,10 +33381,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>28</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -33387,7 +33499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -33542,7 +33654,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -33583,7 +33695,9 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="R7" s="2" t="str">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
         <v/>
@@ -33699,7 +33813,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -33740,7 +33854,9 @@
         <f>O8*5</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*5</f>
         <v>0</v>
@@ -33856,7 +33972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -33897,7 +34013,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -34013,7 +34131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -34054,10 +34172,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -34170,7 +34290,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -34211,7 +34331,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -34327,7 +34449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -34368,7 +34490,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -34484,7 +34608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -34525,7 +34649,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -34641,7 +34767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -34682,7 +34808,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -34798,7 +34926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -34839,7 +34967,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -34955,7 +35085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -34996,7 +35126,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -35112,7 +35244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -35267,7 +35399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -35309,7 +35441,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -35424,21 +35556,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -35455,6 +35572,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35468,15 +35600,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -35540,7 +35672,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -35662,7 +35794,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -35845,7 +35977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -35894,10 +36026,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -36010,7 +36144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -36165,7 +36299,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -36214,10 +36348,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -36330,7 +36466,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -36379,7 +36515,9 @@
         <f>O8*4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*4</f>
         <v>0</v>
@@ -36495,7 +36633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -36544,7 +36682,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -36660,7 +36800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -36709,10 +36849,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -36825,7 +36967,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -36874,7 +37016,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -36990,7 +37134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -37039,7 +37183,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -37155,7 +37301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -37204,7 +37350,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -37320,7 +37468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -37369,7 +37517,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -37485,7 +37635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -37534,7 +37684,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -37650,7 +37802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -37699,7 +37851,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -37815,7 +37969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -37972,7 +38126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -38014,7 +38168,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -38129,21 +38283,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -38160,6 +38299,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38173,15 +38327,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -38245,7 +38399,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -38367,7 +38521,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -38550,7 +38704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -38599,10 +38753,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>45</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -38715,7 +38871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -38870,7 +39026,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -38919,10 +39075,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -39035,7 +39193,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -39084,7 +39242,9 @@
         <f>O8*4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*4</f>
         <v>0</v>
@@ -39200,7 +39360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -39249,7 +39409,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -39365,7 +39527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -39414,10 +39576,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -39530,7 +39694,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -39579,7 +39743,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -39695,7 +39861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -39744,7 +39910,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -39860,7 +40028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -39909,7 +40077,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -40025,7 +40195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -40074,7 +40244,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -40190,7 +40362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -40239,7 +40411,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -40355,7 +40529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -40404,7 +40578,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -40520,7 +40696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -40677,7 +40853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -40719,7 +40895,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -40834,6 +41010,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -40850,21 +41041,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40878,15 +41054,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -40950,7 +41126,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -41072,7 +41248,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -41255,7 +41431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -41302,10 +41478,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -41418,7 +41596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -41573,7 +41751,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -41620,7 +41798,9 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="R7" s="2" t="str">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
         <v/>
@@ -41736,7 +41916,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -41783,7 +41963,9 @@
         <f>O8*4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*4</f>
         <v>0</v>
@@ -41899,7 +42081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -41946,7 +42128,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -42062,7 +42246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -42109,10 +42293,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -42225,7 +42411,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -42272,7 +42458,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -42388,7 +42576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -42435,7 +42623,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -42551,7 +42741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -42598,7 +42788,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -42714,7 +42906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -42761,7 +42953,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -42877,7 +43071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -42924,7 +43118,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -43040,7 +43236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -43087,7 +43283,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -43203,7 +43401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -43358,7 +43556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -43400,7 +43598,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -43515,6 +43713,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -43531,21 +43744,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43562,12 +43760,12 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -43631,7 +43829,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -43753,7 +43951,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -43936,7 +44134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -44095,7 +44293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -44250,7 +44448,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -44409,7 +44607,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -44568,7 +44766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -44727,7 +44925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -44886,7 +45084,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -45045,7 +45243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -45204,7 +45402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -45363,7 +45561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -45522,7 +45720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -45681,7 +45879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -45840,7 +46038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -45995,7 +46193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -46152,6 +46350,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -46168,21 +46381,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46199,12 +46397,12 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -46268,7 +46466,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -46390,7 +46588,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -46573,7 +46771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -46740,7 +46938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -46895,7 +47093,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -47060,7 +47258,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -47225,7 +47423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -47390,7 +47588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -47555,7 +47753,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -47720,7 +47918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -47887,7 +48085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -48052,7 +48250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -48217,7 +48415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -48382,7 +48580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -48547,7 +48745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -48706,7 +48904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -48863,21 +49061,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -48894,6 +49077,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48910,12 +49108,12 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -48979,7 +49177,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -49101,7 +49299,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -49284,7 +49482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -49445,7 +49643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -49600,7 +49798,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -49761,7 +49959,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -49922,7 +50120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -50083,7 +50281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -50244,7 +50442,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -50405,7 +50603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -50566,7 +50764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -50727,7 +50925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -50888,7 +51086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -51049,7 +51247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -51210,7 +51408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -51365,7 +51563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -51522,21 +51720,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -51553,6 +51736,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51569,12 +51767,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -51638,7 +51836,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -51760,7 +51958,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -51943,7 +52141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -52102,7 +52300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -52257,7 +52455,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -52416,7 +52614,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -52575,7 +52773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -52734,7 +52932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -52893,7 +53091,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -53052,7 +53250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -53211,7 +53409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -53370,7 +53568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -53529,7 +53727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -53688,7 +53886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -53847,7 +54045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -54002,7 +54200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -54159,21 +54357,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -54190,6 +54373,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54203,15 +54401,15 @@
   <dimension ref="B2:BJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -54275,7 +54473,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -54397,7 +54595,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -54580,7 +54778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -54631,10 +54829,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>87</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -54747,7 +54947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -54902,7 +55102,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -54953,10 +55153,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -55069,7 +55271,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -55120,7 +55322,9 @@
         <f>O8*4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*4</f>
         <v>0</v>
@@ -55236,7 +55440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -55287,10 +55491,12 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
@@ -55403,7 +55609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -55454,10 +55660,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,2,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,2,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -55570,7 +55778,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -55621,7 +55829,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -55737,7 +55947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -55788,7 +55998,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -55904,7 +56116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -55955,7 +56167,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -56071,7 +56285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -56122,7 +56336,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -56238,7 +56454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -56289,7 +56505,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -56405,7 +56623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -56456,7 +56674,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -56572,7 +56792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -56727,7 +56947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -56769,7 +56989,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -56884,6 +57104,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -56900,21 +57135,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56931,12 +57151,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -57000,7 +57220,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="C3" s="12">
         <v>1</v>
       </c>
@@ -57122,7 +57342,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -57305,7 +57525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -57460,7 +57680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -57615,7 +57835,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -57770,7 +57990,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -57925,7 +58145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -58080,7 +58300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -58235,7 +58455,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -58390,7 +58610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -58545,7 +58765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -58700,7 +58920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -58855,7 +59075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -59010,7 +59230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -59165,7 +59385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -59320,7 +59540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -59477,6 +59697,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -59493,21 +59728,6 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59520,16 +59740,16 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -59593,7 +59813,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -59716,7 +59936,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -59899,7 +60119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -59946,10 +60166,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -60062,7 +60284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -60217,7 +60439,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -60264,10 +60486,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -60380,7 +60604,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -60416,21 +60640,23 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" s="2">
         <f>INT(M8/2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
         <f>INT(O8/2)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>4</v>
+      </c>
       <c r="R8" s="2">
         <f>INT(Q8/2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
@@ -60543,7 +60769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -60590,7 +60816,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -60706,7 +60934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -60753,10 +60981,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,4,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,4,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -60870,7 +61100,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -60917,7 +61147,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -61033,7 +61265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -61080,7 +61312,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -61196,7 +61430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -61243,7 +61477,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -61359,7 +61595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -61406,7 +61642,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -61522,7 +61760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -61569,7 +61807,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -61685,7 +61925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -61732,7 +61972,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -61848,7 +62090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -62003,7 +62245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -62035,7 +62277,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2">
         <f>SUM(N5:N17)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2">
@@ -62045,7 +62287,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -62160,21 +62402,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="S3:T3"/>
@@ -62191,6 +62418,21 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62203,16 +62445,16 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -62276,7 +62518,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -62399,7 +62641,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -62582,7 +62824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -62631,10 +62873,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -62747,7 +62991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -62902,7 +63146,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -62951,10 +63195,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -63067,7 +63313,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -63116,10 +63362,12 @@
         <f>O8*6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
       <c r="R8" s="2">
-        <f>Q8*6</f>
-        <v>0</v>
+        <f>Q8*4</f>
+        <v>8</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
@@ -63232,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -63281,7 +63529,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -63397,7 +63647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -63446,10 +63696,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,3,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,3,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -63563,7 +63815,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -63612,7 +63864,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -63728,7 +63982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -63777,7 +64031,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -63893,7 +64149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -63942,7 +64198,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -64058,7 +64316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -64107,7 +64365,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -64223,7 +64483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -64272,7 +64532,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -64388,7 +64650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -64437,7 +64699,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -64553,7 +64817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -64592,10 +64856,12 @@
         <f>IF(EXACT(O17,"SI"),3,0)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="R17" s="2">
         <f>IF(EXACT(Q17,"SI"),3,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
@@ -64708,7 +64974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -64750,7 +65016,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -64865,21 +65131,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -64896,6 +65147,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64908,16 +65174,16 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -64981,7 +65247,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -65104,7 +65370,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -65287,7 +65553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -65334,10 +65600,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -65450,7 +65718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -65605,7 +65873,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -65652,10 +65920,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -65768,7 +66038,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -65815,7 +66085,9 @@
         <f>O8*6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*6</f>
         <v>0</v>
@@ -65931,7 +66203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -65978,7 +66250,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -66094,7 +66368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -66141,10 +66415,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,3,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,3,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -66258,7 +66534,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -66305,7 +66581,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -66421,7 +66699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -66468,7 +66746,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -66584,7 +66864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -66631,7 +66911,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -66747,7 +67029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -66794,7 +67076,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -66910,7 +67194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -66957,7 +67241,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -67073,7 +67359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -67120,7 +67406,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -67236,7 +67524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -67391,7 +67679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -67433,7 +67721,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -67548,21 +67836,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -67579,6 +67852,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67595,12 +67883,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -67664,7 +67952,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -67787,7 +68075,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -67970,7 +68258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -68131,7 +68419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -68286,7 +68574,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -68447,7 +68735,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -68608,7 +68896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -68769,7 +69057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -68931,7 +69219,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -69092,7 +69380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -69253,7 +69541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -69414,7 +69702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -69575,7 +69863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -69736,7 +70024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -69897,7 +70185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -70052,7 +70340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -70209,21 +70497,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -70240,6 +70513,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70252,16 +70540,16 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -70325,7 +70613,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -70448,7 +70736,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -70631,7 +70919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -70674,10 +70962,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>90</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -70790,7 +71080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -70945,7 +71235,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -70988,10 +71278,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -71104,7 +71396,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -71147,7 +71439,9 @@
         <f>O8*6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*6</f>
         <v>0</v>
@@ -71263,7 +71557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -71306,7 +71600,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -71422,7 +71718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -71465,10 +71761,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,3,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,3,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -71582,7 +71880,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -71625,7 +71923,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -71741,7 +72041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -71784,10 +72084,12 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
@@ -71900,7 +72202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -71943,7 +72245,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -72059,7 +72363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -72102,7 +72406,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -72218,7 +72524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -72261,7 +72567,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -72377,7 +72685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -72420,7 +72728,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -72536,7 +72846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -72691,7 +73001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -72733,7 +73043,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -72848,21 +73158,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -72879,6 +73174,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72891,16 +73201,16 @@
   </sheetPr>
   <dimension ref="B2:BL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -72964,7 +73274,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -73087,7 +73397,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -73270,7 +73580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -73313,10 +73623,12 @@
         <f>IF(O5&gt;0,INT(O5/45)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>45</v>
+      </c>
       <c r="R5" s="2">
         <f>IF(Q5&gt;0,INT(Q5/45)+1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
@@ -73429,7 +73741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -73584,7 +73896,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -73627,10 +73939,12 @@
         <f>IF(O5&gt;=30,IF(EXACT(O7,"W"),2,IF(EXACT(O7,"D"),1,IF(EXACT(O7,"L"),0,""))),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+      <c r="Q7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2">
         <f>IF(Q5&gt;=30,IF(EXACT(Q7,"W"),2,IF(EXACT(Q7,"D"),1,IF(EXACT(Q7,"L"),0,""))),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="str">
@@ -73743,7 +74057,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -73786,7 +74100,9 @@
         <f>O8*6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <f>Q8*6</f>
         <v>0</v>
@@ -73902,7 +74218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -73945,7 +74261,9 @@
         <f>O9*3</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <f>Q9*3</f>
         <v>0</v>
@@ -74061,7 +74379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -74104,10 +74422,12 @@
         <f>IF(ISNUMBER(O10),IF(O5&gt;=60,IF(O10=0,3,1-O10),1-O10),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <f>IF(ISNUMBER(Q10),IF(Q5&gt;=60,IF(Q10=0,3,1-Q10),1-Q10),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="str">
@@ -74221,7 +74541,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -74264,7 +74584,9 @@
         <f>-3*O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <f>-3*Q11</f>
         <v>0</v>
@@ -74380,7 +74702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -74423,7 +74745,9 @@
         <f>-O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <f>-Q12</f>
         <v>0</v>
@@ -74539,7 +74863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -74582,7 +74906,9 @@
         <f>-3*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <f>-3*Q13</f>
         <v>0</v>
@@ -74698,7 +75024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -74741,7 +75067,9 @@
         <f>-2*O14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <f>-2*Q14</f>
         <v>0</v>
@@ -74857,7 +75185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -74900,7 +75228,9 @@
         <f>3*O15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
       <c r="R15" s="2">
         <f>3*Q15</f>
         <v>0</v>
@@ -75016,7 +75346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -75059,7 +75389,9 @@
         <f>-3*O16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <f>-3*Q16</f>
         <v>0</v>
@@ -75175,7 +75507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -75214,7 +75546,9 @@
         <f>IF(EXACT(O17,"SI"),3,0)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="R17" s="2">
         <f>IF(EXACT(Q17,"SI"),3,0)</f>
         <v>0</v>
@@ -75330,7 +75664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -75372,7 +75706,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2">
         <f>SUM(R5:R17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -75487,21 +75821,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -75518,6 +75837,21 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -75534,12 +75868,12 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:64">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
@@ -75603,7 +75937,7 @@
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
     </row>
-    <row r="3" spans="2:64">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="12">
         <v>1</v>
@@ -75726,7 +76060,7 @@
       </c>
       <c r="BJ3" s="12"/>
     </row>
-    <row r="4" spans="2:64">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -75909,7 +76243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:64">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -76074,7 +76408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:64">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -76231,7 +76565,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:64">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -76396,7 +76730,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:64">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -76561,7 +76895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:64">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -76726,7 +77060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:64">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -76892,7 +77226,7 @@
       </c>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="2:64">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -77057,7 +77391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:64">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -77222,7 +77556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:64">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -77387,7 +77721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:64">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -77552,7 +77886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:64">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -77717,7 +78051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:64">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -77882,7 +78216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
@@ -78037,7 +78371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
@@ -78194,21 +78528,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="C2:BJ2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -78225,18 +78544,32 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d147b059-24c6-415e-9a90-53ef61b07cc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78473,21 +78806,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d147b059-24c6-415e-9a90-53ef61b07cc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5922835F-278F-452E-896E-915B82F9AD66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9FE74A-0BD6-4D60-B977-9F383147B27F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E01DE2-EED2-413F-923D-38288BFD7C42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E01DE2-EED2-413F-923D-38288BFD7C42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d147b059-24c6-415e-9a90-53ef61b07cc6"/>
+    <ds:schemaRef ds:uri="f6019bca-d41b-489a-ac12-65458f2a9db6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9FE74A-0BD6-4D60-B977-9F383147B27F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5922835F-278F-452E-896E-915B82F9AD66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>